--- a/StructureDefinition-DDCCOrganizationIdentifier.xlsx
+++ b/StructureDefinition-DDCCOrganizationIdentifier.xlsx
@@ -370,7 +370,7 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
